--- a/SALT/SALT_properties.xlsx
+++ b/SALT/SALT_properties.xlsx
@@ -1,33 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/Documents/LDRD_FY20_SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natiben/myrepo/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C71CEB-9BE6-C44B-85F2-81626450DF54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDEAC9E-17A0-3845-8BF5-0B06A95FAF85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{1438BF92-828F-7149-A6D5-4B22AB4873A7}"/>
+    <workbookView xWindow="1000" yWindow="3480" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{1438BF92-828F-7149-A6D5-4B22AB4873A7}"/>
   </bookViews>
   <sheets>
     <sheet name="KCl" sheetId="1" r:id="rId1"/>
     <sheet name="LiCl_80KCl" sheetId="2" r:id="rId2"/>
     <sheet name="NaCl_MgCl2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>KCl equilibrations</t>
   </si>
@@ -45,6 +51,9 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>LiCl-80KCl equilibrations</t>
   </si>
 </sst>
 </file>
@@ -148,10 +157,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>KCl!$G$6:$G$10</c:f>
+              <c:f>KCl!$G$6:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6518.04</c:v>
                 </c:pt>
@@ -166,16 +175,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8675.5112399999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9280.5686718750003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9913.1240849999976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>KCl!$F$6:$F$10</c:f>
+              <c:f>KCl!$F$6:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>19.802406666666698</c:v>
                 </c:pt>
@@ -185,8 +200,17 @@
                 <c:pt idx="2">
                   <c:v>5.9041266666666701</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6969799999999999</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>-9.4726666666666695E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.80862000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.81626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -195,6 +219,79 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2414-364F-8BDB-030FFEE06D75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>KCl!$G$15:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6859.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7415.1776920833954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000.3265782184035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8615.476689021727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9261.378055110079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>KCl!$F$15:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.896513333333299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2037000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6605-9142-812F-0EF2D0A841FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -213,6 +310,8 @@
         <c:axId val="1014847472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+          <c:min val="6000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1742,8 +1841,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2112,7 +2211,7 @@
   <dimension ref="B3:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B3" sqref="B3:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2170,7 +2269,7 @@
         <v>5.9041266666666701</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G10" si="0">G7*((D8/D7)^(3))</f>
+        <f t="shared" ref="G8:G12" si="0">G7*((D8/D7)^(3))</f>
         <v>7545.4460549999994</v>
       </c>
     </row>
@@ -2178,6 +2277,12 @@
       <c r="D9">
         <v>1.075</v>
       </c>
+      <c r="E9">
+        <v>-631.34152687333403</v>
+      </c>
+      <c r="F9">
+        <v>2.6969799999999999</v>
+      </c>
       <c r="G9">
         <f t="shared" si="0"/>
         <v>8097.3407231249976</v>
@@ -2202,11 +2307,31 @@
       <c r="D11">
         <v>1.125</v>
       </c>
+      <c r="E11">
+        <v>-626.46267805333298</v>
+      </c>
+      <c r="F11">
+        <v>-0.80862000000000001</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>9280.5686718750003</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>1.1499999999999999</v>
       </c>
+      <c r="E12">
+        <v>-623.38357945333303</v>
+      </c>
+      <c r="F12">
+        <v>-1.81626</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>9913.1240849999976</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D14">
@@ -2217,78 +2342,109 @@
       <c r="D15">
         <v>0.95</v>
       </c>
+      <c r="E15">
+        <v>-635.36910887999898</v>
+      </c>
+      <c r="F15">
+        <v>12.896513333333299</v>
+      </c>
+      <c r="G15">
+        <v>6859.28</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D16">
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>-635.38609069999995</v>
+      </c>
+      <c r="F16">
+        <v>6.2037000000000004</v>
+      </c>
+      <c r="G16">
+        <f>G15*((D16/D15)^(3))</f>
+        <v>7415.1776920833954</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f t="shared" ref="G17:G19" si="1">G16*((D17/D16)^(3))</f>
+        <v>8000.3265782184035</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D18">
         <v>1.0249999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>8615.476689021727</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D19">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>9261.378055110079</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D21">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D22">
         <v>0.95</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D23">
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D25">
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D26">
         <v>1.05</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D28">
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D29">
         <v>0.95</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D30">
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D32">
         <v>1.0249999999999999</v>
       </c>
@@ -2306,22 +2462,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42FAA31-0BF7-0A47-A1FF-DA8766D4C63C}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>0.95</v>
+      </c>
+      <c r="E5">
+        <v>-645.49680606666595</v>
+      </c>
+      <c r="F5">
+        <v>35.19162</v>
+      </c>
+      <c r="G5">
+        <v>5588.41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G6">
+        <f>G5*((D6/D5)^(3))</f>
+        <v>6041.3123777154115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>-648.61861583333302</v>
+      </c>
+      <c r="F7">
+        <v>14.8488133333333</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G13" si="0">G6*((D7/D6)^(3))</f>
+        <v>6518.0463624435088</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E8">
+        <v>-648.88683186666697</v>
+      </c>
+      <c r="F8">
+        <v>8.2293666666666692</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>7019.2230210307662</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>1.05</v>
+      </c>
+      <c r="E9">
+        <v>-646.176745193334</v>
+      </c>
+      <c r="F9">
+        <v>4.9316599999999999</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>7545.4534203236663</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>1.075</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>8097.3486271686861</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>8675.5197084123101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>1.125</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>9280.5777309010118</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>9913.1337614812692</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0386EE-94F0-D14A-AAF9-31FA05A213F8}">
-  <dimension ref="B4:F10"/>
+  <dimension ref="B4:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2419,6 +2692,75 @@
         <v>8823.2931943432031</v>
       </c>
     </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>0.9</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F16" si="1">F15*(C14/C15)^3</f>
+        <v>5556.3547483095408</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>0.95</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>6534.8143379038293</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>7621.8858001502613</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>1.05</v>
+      </c>
+      <c r="F17">
+        <f>F18*(C17/C18)^3</f>
+        <v>8823.2855493989464</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D18">
+        <v>-639.56252220666704</v>
+      </c>
+      <c r="E18">
+        <v>-2.83110666666667</v>
+      </c>
+      <c r="F18">
+        <v>10144.73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/SALT/SALT_properties.xlsx
+++ b/SALT/SALT_properties.xlsx
@@ -1,39 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natiben/myrepo/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDEAC9E-17A0-3845-8BF5-0B06A95FAF85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D73D629-62D2-1845-997E-78869218BEC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="3480" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{1438BF92-828F-7149-A6D5-4B22AB4873A7}"/>
+    <workbookView xWindow="1000" yWindow="3480" windowWidth="27640" windowHeight="16940" xr2:uid="{1438BF92-828F-7149-A6D5-4B22AB4873A7}"/>
   </bookViews>
   <sheets>
     <sheet name="KCl" sheetId="1" r:id="rId1"/>
     <sheet name="LiCl_80KCl" sheetId="2" r:id="rId2"/>
     <sheet name="NaCl_MgCl2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>KCl equilibrations</t>
   </si>
@@ -54,6 +48,39 @@
   </si>
   <si>
     <t>LiCl-80KCl equilibrations</t>
+  </si>
+  <si>
+    <t>g/cc</t>
+  </si>
+  <si>
+    <t># atoms</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>g/mol</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>V_eq (Å^3)</t>
+  </si>
+  <si>
+    <t>V_eq (cc)</t>
+  </si>
+  <si>
+    <t>T ( C )</t>
+  </si>
+  <si>
+    <t>T(K)</t>
+  </si>
+  <si>
+    <t># molecules</t>
+  </si>
+  <si>
+    <t>g/system</t>
   </si>
 </sst>
 </file>
@@ -155,6 +182,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6393700787401575E-2"/>
+                  <c:y val="-0.44588008530183726"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>KCl!$G$6:$G$12</c:f>
@@ -285,6 +363,15 @@
                 <c:pt idx="1">
                   <c:v>6.2037000000000004</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2641200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20201333333333399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.68431333333333</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -292,6 +379,170 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6605-9142-812F-0EF2D0A841FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>KCl!$G$22:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6859.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7415.1776920833954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000.3265782184035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8615.476689021727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9261.378055110079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>KCl!$F$22:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.8176533333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6551866666666699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1924066666666699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.49138666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.3609666666666702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B768-B04A-9D98-FBD9AEBF84AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>KCl!$G$29:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6859.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7415.1776920833954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000.3265782184035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8615.476689021727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9261.378055110079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>KCl!$F$29:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.576266666666699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6282199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14620666666666701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.22196666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.2317466666666599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B768-B04A-9D98-FBD9AEBF84AD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -318,7 +569,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -480,6 +731,665 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14862379702537182"/>
+                  <c:y val="-0.24766477107028287"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.000E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>KCl!$G$29:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6859.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7415.1776920833954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000.3265782184035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8615.476689021727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9261.378055110079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>KCl!$F$29:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.576266666666699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6282199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14620666666666701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.22196666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.2317466666666599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11E9-DD46-A3A9-8ECB5E820037}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1020758704"/>
+        <c:axId val="1051740240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1020758704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1051740240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1051740240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1020758704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>KCl!$K$22:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1052.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1054.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1082.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1100.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1143.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1180.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>KCl!$J$22:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5210999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4688000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4479</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A43D-5146-96D6-05754D347BC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>KCl!$I$6:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>KCl!$L$6:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.4345205489580874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4108000016209996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5057576940377977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5394854671745326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A43D-5146-96D6-05754D347BC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="998879792"/>
+        <c:axId val="998553488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="998879792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="998553488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="998553488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="998879792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -555,6 +1465,164 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CB97-144C-B270-EE51C521409F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NaCl_MgCl2!$F$14:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5556.3547483095408</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6534.8143379038293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7621.8858001502613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8823.2855493989464</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10144.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NaCl_MgCl2!$E$14:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.1811000000000096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.34994666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.79368666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.83110666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61A4-474B-9FB2-EF5F9ED0FBF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NaCl_MgCl2!$F$22:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5556.3547483095408</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6534.8143379038293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7621.8858001502613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8823.2855493989464</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10144.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NaCl_MgCl2!$E$22:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.76745333333333299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.34476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.08076666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.8014266666666701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-61A4-474B-9FB2-EF5F9ED0FBF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -797,6 +1865,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1829,20 +2977,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1862,6 +4042,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{559B2736-26EE-7048-932A-62F4B920FFD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B340272B-4218-9947-A8ED-BF7466C71027}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2208,28 +4460,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3A5D53-7F5B-9F45-9859-7896F0131034}">
-  <dimension ref="B3:G33"/>
+  <dimension ref="B1:L54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <f>39+35.5</f>
+        <v>74.5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <f>100*39+100*35.5</f>
+        <v>7450</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <f>(100*I2)/(6.022*10^23)</f>
+        <v>1.2371305214214547E-20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="D5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D6">
         <v>1</v>
       </c>
@@ -2242,8 +4546,22 @@
       <c r="G6">
         <v>6518.04</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>1000</v>
+      </c>
+      <c r="J6">
+        <v>8624</v>
+      </c>
+      <c r="K6">
+        <f>J6*(10^-8)^3</f>
+        <v>8.6240000000000011E-21</v>
+      </c>
+      <c r="L6">
+        <f>$I$3/K6</f>
+        <v>1.4345205489580874</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D7">
         <v>1.0249999999999999</v>
       </c>
@@ -2257,8 +4575,22 @@
         <f>G6*((D7/D6)^(3))</f>
         <v>7019.2161693749995</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>900</v>
+      </c>
+      <c r="J7">
+        <v>8769</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K9" si="0">J7*(10^-8)^3</f>
+        <v>8.7690000000000005E-21</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L9" si="1">$I$3/K7</f>
+        <v>1.4108000016209996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>1.05</v>
       </c>
@@ -2269,11 +4601,25 @@
         <v>5.9041266666666701</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G12" si="0">G7*((D8/D7)^(3))</f>
+        <f t="shared" ref="G8:G12" si="2">G7*((D8/D7)^(3))</f>
         <v>7545.4460549999994</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>800</v>
+      </c>
+      <c r="J8">
+        <v>8216</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>8.2160000000000009E-21</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>1.5057576940377977</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D9">
         <v>1.075</v>
       </c>
@@ -2284,11 +4630,25 @@
         <v>2.6969799999999999</v>
       </c>
       <c r="G9">
+        <f t="shared" si="2"/>
+        <v>8097.3407231249976</v>
+      </c>
+      <c r="I9">
+        <v>700</v>
+      </c>
+      <c r="J9">
+        <v>8036</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="0"/>
-        <v>8097.3407231249976</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+        <v>8.0360000000000015E-21</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>1.5394854671745326</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>1.1000000000000001</v>
       </c>
@@ -2299,11 +4659,11 @@
         <v>-9.4726666666666695E-2</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8675.5112399999998</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D11">
         <v>1.125</v>
       </c>
@@ -2314,11 +4674,11 @@
         <v>-0.80862000000000001</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9280.5686718750003</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>1.1499999999999999</v>
       </c>
@@ -2329,16 +4689,16 @@
         <v>-1.81626</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9913.1240849999976</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D14">
         <v>900</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D15">
         <v>0.95</v>
       </c>
@@ -2352,7 +4712,7 @@
         <v>6859.28</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D16">
         <v>0.97499999999999998</v>
       </c>
@@ -2367,91 +4727,435 @@
         <v>7415.1776920833954</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D17">
         <v>1</v>
       </c>
+      <c r="E17">
+        <v>-633.90841610666598</v>
+      </c>
+      <c r="F17">
+        <v>2.2641200000000001</v>
+      </c>
       <c r="G17">
-        <f t="shared" ref="G17:G19" si="1">G16*((D17/D16)^(3))</f>
+        <f t="shared" ref="G17:G19" si="3">G16*((D17/D16)^(3))</f>
         <v>8000.3265782184035</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D18">
         <v>1.0249999999999999</v>
       </c>
+      <c r="E18">
+        <v>-631.03766354000004</v>
+      </c>
+      <c r="F18">
+        <v>0.20201333333333399</v>
+      </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8615.476689021727</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D19">
         <v>1.05</v>
       </c>
+      <c r="E19">
+        <v>-628.71866974</v>
+      </c>
+      <c r="F19">
+        <v>-1.68431333333333</v>
+      </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9261.378055110079</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D21">
         <v>800</v>
       </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D22">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>-638.23409105999997</v>
+      </c>
+      <c r="F22">
+        <v>11.8176533333333</v>
+      </c>
+      <c r="G22">
+        <v>6859.28</v>
+      </c>
+      <c r="I22">
+        <v>779.5</v>
+      </c>
+      <c r="J22">
+        <v>1.5219</v>
+      </c>
+      <c r="K22">
+        <f>I22+273</f>
+        <v>1052.5</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D23">
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>-638.41976831333295</v>
+      </c>
+      <c r="F23">
+        <v>5.6551866666666699</v>
+      </c>
+      <c r="G23">
+        <f>G22*((D23/D22)^(3))</f>
+        <v>7415.1776920833954</v>
+      </c>
+      <c r="I23">
+        <v>781.8</v>
+      </c>
+      <c r="J23">
+        <v>1.5210999999999999</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K28" si="4">I23+273</f>
+        <v>1054.8</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>-636.64457925333397</v>
+      </c>
+      <c r="F24">
+        <v>1.1924066666666699</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:G26" si="5">G23*((D24/D23)^(3))</f>
+        <v>8000.3265782184035</v>
+      </c>
+      <c r="I24">
+        <v>809.4</v>
+      </c>
+      <c r="J24">
+        <v>1.5058</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>1082.4000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D25">
         <v>1.0249999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>-634.37887425999998</v>
+      </c>
+      <c r="F25">
+        <v>-1.49138666666667</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>8615.476689021727</v>
+      </c>
+      <c r="I25">
+        <v>827.4</v>
+      </c>
+      <c r="J25">
+        <v>1.4943</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>1100.4000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D26">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>-631.932673520001</v>
+      </c>
+      <c r="F26">
+        <v>-2.3609666666666702</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>9261.378055110079</v>
+      </c>
+      <c r="I26">
+        <v>870.4</v>
+      </c>
+      <c r="J26">
+        <v>1.4688000000000001</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>1143.4000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>907.2</v>
+      </c>
+      <c r="J27">
+        <v>1.4479</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>1180.2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D28">
         <v>700</v>
       </c>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>939</v>
+      </c>
+      <c r="J28">
+        <v>1.4292</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D29">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>-640.98074726666698</v>
+      </c>
+      <c r="F29">
+        <v>10.576266666666699</v>
+      </c>
+      <c r="G29">
+        <v>6859.28</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D30">
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>-640.89079893999997</v>
+      </c>
+      <c r="F30">
+        <v>4.6282199999999998</v>
+      </c>
+      <c r="G30">
+        <f>G29*((D30/D29)^(3))</f>
+        <v>7415.1776920833954</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>-639.97294595999995</v>
+      </c>
+      <c r="F31">
+        <v>0.14620666666666701</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31:G33" si="6">G30*((D31/D30)^(3))</f>
+        <v>8000.3265782184035</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D32">
         <v>1.0249999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>-637.97254299999997</v>
+      </c>
+      <c r="F32">
+        <v>-2.22196666666667</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>8615.476689021727</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D33">
         <v>1.05</v>
+      </c>
+      <c r="E33">
+        <v>-634.89891866666596</v>
+      </c>
+      <c r="F33">
+        <v>-3.2317466666666599</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="6"/>
+        <v>9261.378055110079</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>0.95</v>
+      </c>
+      <c r="G36">
+        <v>6859.28</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G37">
+        <f>G36*((D37/D36)^(3))</f>
+        <v>7415.1776920833954</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38:G40" si="7">G37*((D38/D37)^(3))</f>
+        <v>8000.3265782184035</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="7"/>
+        <v>8615.476689021727</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>1.05</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="7"/>
+        <v>9261.378055110079</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>0.95</v>
+      </c>
+      <c r="G43">
+        <v>6859.28</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G44">
+        <f>G43*((D44/D43)^(3))</f>
+        <v>7415.1776920833954</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45:G47" si="8">G44*((D45/D44)^(3))</f>
+        <v>8000.3265782184035</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="8"/>
+        <v>8615.476689021727</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>1.05</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="8"/>
+        <v>9261.378055110079</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>0.95</v>
+      </c>
+      <c r="G50">
+        <v>6859.28</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G51">
+        <f>G50*((D51/D50)^(3))</f>
+        <v>7415.1776920833954</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ref="G52:G54" si="9">G51*((D52/D51)^(3))</f>
+        <v>8000.3265782184035</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="9"/>
+        <v>8615.476689021727</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>1.05</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="9"/>
+        <v>9261.378055110079</v>
       </c>
     </row>
   </sheetData>
@@ -2591,10 +5295,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0386EE-94F0-D14A-AAF9-31FA05A213F8}">
-  <dimension ref="B4:F18"/>
+  <dimension ref="B4:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2715,6 +5419,12 @@
       <c r="C14">
         <v>0.9</v>
       </c>
+      <c r="D14">
+        <v>-649.05571945333304</v>
+      </c>
+      <c r="E14">
+        <v>8.1811000000000096</v>
+      </c>
       <c r="F14">
         <f t="shared" ref="F14:F16" si="1">F15*(C14/C15)^3</f>
         <v>5556.3547483095408</v>
@@ -2724,6 +5434,12 @@
       <c r="C15">
         <v>0.95</v>
       </c>
+      <c r="D15">
+        <v>-647.41800122000097</v>
+      </c>
+      <c r="E15">
+        <v>1.34994666666667</v>
+      </c>
       <c r="F15">
         <f t="shared" si="1"/>
         <v>6534.8143379038293</v>
@@ -2733,12 +5449,18 @@
       <c r="C16">
         <v>1</v>
       </c>
+      <c r="D16">
+        <v>-643.99140394000005</v>
+      </c>
+      <c r="E16">
+        <v>-1.79368666666667</v>
+      </c>
       <c r="F16">
         <f t="shared" si="1"/>
         <v>7621.8858001502613</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>1.05</v>
       </c>
@@ -2747,7 +5469,7 @@
         <v>8823.2855493989464</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>1.1000000000000001</v>
       </c>
@@ -2758,6 +5480,156 @@
         <v>-2.83110666666667</v>
       </c>
       <c r="F18">
+        <v>10144.73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>0.9</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F24" si="2">F23*(C22/C23)^3</f>
+        <v>5556.3547483095408</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>0.95</v>
+      </c>
+      <c r="D23">
+        <v>-649.90325709333297</v>
+      </c>
+      <c r="E23">
+        <v>0.76745333333333299</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>6534.8143379038293</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>-647.29053920000001</v>
+      </c>
+      <c r="E24">
+        <v>-2.34476</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>7621.8858001502613</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>1.05</v>
+      </c>
+      <c r="D25">
+        <v>-645.520931086666</v>
+      </c>
+      <c r="E25">
+        <v>-3.08076666666667</v>
+      </c>
+      <c r="F25">
+        <f>F26*(C25/C26)^3</f>
+        <v>8823.2855493989464</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D26">
+        <v>-644.17632191999996</v>
+      </c>
+      <c r="E26">
+        <v>-2.8014266666666701</v>
+      </c>
+      <c r="F26">
+        <v>10144.73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>0.9</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30:F32" si="3">F31*(C30/C31)^3</f>
+        <v>5556.3547483095408</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>0.95</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>6534.8143379038293</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>7621.8858001502613</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>1.05</v>
+      </c>
+      <c r="F33">
+        <f>F34*(C33/C34)^3</f>
+        <v>8823.2855493989464</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F34">
         <v>10144.73</v>
       </c>
     </row>

--- a/SALT/SALT_properties.xlsx
+++ b/SALT/SALT_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D73D629-62D2-1845-997E-78869218BEC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1440C165-0C41-3941-9FDF-9230D07F131E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="3480" windowWidth="27640" windowHeight="16940" xr2:uid="{1438BF92-828F-7149-A6D5-4B22AB4873A7}"/>
+    <workbookView xWindow="1000" yWindow="3480" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{1438BF92-828F-7149-A6D5-4B22AB4873A7}"/>
   </bookViews>
   <sheets>
     <sheet name="KCl" sheetId="1" r:id="rId1"/>
@@ -4126,16 +4126,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4462,7 +4462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3A5D53-7F5B-9F45-9859-7896F0131034}">
   <dimension ref="B1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -5166,25 +5166,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42FAA31-0BF7-0A47-A1FF-DA8766D4C63C}">
-  <dimension ref="B2:G13"/>
+  <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:F9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D4">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D5">
         <v>0.95</v>
       </c>
@@ -5197,8 +5197,12 @@
       <c r="G5">
         <v>5588.41</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <f t="shared" ref="H5:H12" si="0">G5^(1/3)</f>
+        <v>17.74582061224914</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D6">
         <v>0.97499999999999998</v>
       </c>
@@ -5206,8 +5210,12 @@
         <f>G5*((D6/D5)^(3))</f>
         <v>6041.3123777154115</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>18.212815891518861</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D7">
         <v>1</v>
       </c>
@@ -5218,11 +5226,15 @@
         <v>14.8488133333333</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G13" si="0">G6*((D7/D6)^(3))</f>
+        <f t="shared" ref="G7:G13" si="1">G6*((D7/D6)^(3))</f>
         <v>6518.0463624435088</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>18.679811170788568</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>1.0249999999999999</v>
       </c>
@@ -5233,11 +5245,15 @@
         <v>8.2293666666666692</v>
       </c>
       <c r="G8">
+        <f t="shared" si="1"/>
+        <v>7019.2230210307662</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>7019.2230210307662</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+        <v>19.146806450058296</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D9">
         <v>1.05</v>
       </c>
@@ -5248,44 +5264,64 @@
         <v>4.9316599999999999</v>
       </c>
       <c r="G9">
+        <f t="shared" si="1"/>
+        <v>7545.4534203236663</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
-        <v>7545.4534203236663</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+        <v>19.613801729327999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>1.075</v>
       </c>
       <c r="G10">
+        <f t="shared" si="1"/>
+        <v>8097.3486271686861</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>8097.3486271686861</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+        <v>20.080797008597713</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D11">
         <v>1.1000000000000001</v>
       </c>
       <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8675.5197084123101</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>8675.5197084123101</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+        <v>20.547792287867434</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>1.125</v>
       </c>
       <c r="G12">
+        <f t="shared" si="1"/>
+        <v>9280.5777309010118</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
-        <v>9280.5777309010118</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+        <v>21.014787567137148</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D13">
         <v>1.1499999999999999</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9913.1337614812692</v>
+      </c>
+      <c r="H13">
+        <f>G13^(1/3)</f>
+        <v>21.481782846406858</v>
       </c>
     </row>
   </sheetData>
@@ -5297,8 +5333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0386EE-94F0-D14A-AAF9-31FA05A213F8}">
   <dimension ref="B4:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/SALT/SALT_properties.xlsx
+++ b/SALT/SALT_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1440C165-0C41-3941-9FDF-9230D07F131E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29C1207-146C-FB44-9442-40038598596A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="3480" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{1438BF92-828F-7149-A6D5-4B22AB4873A7}"/>
+    <workbookView minimized="1" xWindow="1000" yWindow="3480" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{1438BF92-828F-7149-A6D5-4B22AB4873A7}"/>
   </bookViews>
   <sheets>
     <sheet name="KCl" sheetId="1" r:id="rId1"/>
@@ -5168,8 +5168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42FAA31-0BF7-0A47-A1FF-DA8766D4C63C}">
   <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5333,7 +5333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0386EE-94F0-D14A-AAF9-31FA05A213F8}">
   <dimension ref="B4:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
